--- a/ProjectBase/Design/Pack/打包图.xlsx
+++ b/ProjectBase/Design/Pack/打包图.xlsx
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输出后的大图路径，输出文件可带后缀，不带后缀默认为t2d，不填则在图片目录并于首个目录同名；'/'结尾则视为目录，不组合大图（Power2将失效），主要作为仅裁切图片时使用</t>
+    <t>输出后的大图路径，输出文件可带后缀，不带后缀默认为png，不填则在图片目录并于首个目录同名；'/'结尾则视为目录，不组合大图（Power2将失效），主要作为仅裁切图片时使用</t>
   </si>
 </sst>
 </file>
